--- a/biology/Écologie/Mésocosme/Mésocosme.xlsx
+++ b/biology/Écologie/Mésocosme/Mésocosme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9socosme</t>
+          <t>Mésocosme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mésocosme est une des formes d'écotron. C'est un lieu confiné et contrôlé ou semi-contrôlé où un expérimentateur peut faire varier tout ou une partie des paramètres du milieu ; sol, hygrométrie, température, teneur de l'air en CO2 ou polluants, etc.
 Ce dispositif expérimental est destiné à l’étude des réponses d'espèces dans leur milieu (reconstitué) ou à l'étude d'organismes soumis à des variations de l'environnement ou à des substances potentiellement toxiques.  
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9socosme</t>
+          <t>Mésocosme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mésocosmes sont conçus pour que les chercheurs puissent contrôler certains paramètres du milieu et également mesurer avec grande précision sur des pas de temps significatifs certains flux et les réponses biologiques et écologiques à une modification d'un ou plusieurs des paramètres contrôlables. Les études sont souvent :
 toxicologiques
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9socosme</t>
+          <t>Mésocosme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-L'INERIS dispose d'un mésocosme en région parisienne. Il est utilisé pour des études écotoxicologiques sur les organismes et milieux aquatiques. Il est constitué de douze canaux en béton de 20 m de long, 1 m de large et 30 à 70 cm de profondeur. Ces canaux simulent les différents composants d'un écosystème et permettent d'étudier les effets de polluants sur les compartiments et espèces des écosystèmes (sédiments, bactéries, champignons, planctons, invertébrés, poissons, etc.[1]
-il existe aussi l' écotron européen de Montpellier[2] (en réalité sur le campus de Baillarguet, dont la construction a commencé en octobre 2007[3], le plus grand équipement disponible en France. il inclut un  plateau « mésocosmes » de 24 modules, sous lumière naturelle. Ces modules peuvent être associés par deux ou quatre. Ils sont consacrés aux études à court terme (de trois mois à deux ans). Pour l'utiliser, il faut réponde à des  appels à propositions ou appels à manifestation d'intérêt [4]. 
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'INERIS dispose d'un mésocosme en région parisienne. Il est utilisé pour des études écotoxicologiques sur les organismes et milieux aquatiques. Il est constitué de douze canaux en béton de 20 m de long, 1 m de large et 30 à 70 cm de profondeur. Ces canaux simulent les différents composants d'un écosystème et permettent d'étudier les effets de polluants sur les compartiments et espèces des écosystèmes (sédiments, bactéries, champignons, planctons, invertébrés, poissons, etc.
+il existe aussi l' écotron européen de Montpellier (en réalité sur le campus de Baillarguet, dont la construction a commencé en octobre 2007, le plus grand équipement disponible en France. il inclut un  plateau « mésocosmes » de 24 modules, sous lumière naturelle. Ces modules peuvent être associés par deux ou quatre. Ils sont consacrés aux études à court terme (de trois mois à deux ans). Pour l'utiliser, il faut réponde à des  appels à propositions ou appels à manifestation d'intérêt . 
 Cet écotron a été financé par le CNRS (1,8 M€), le conseil régional de Languedoc-Roussillon (1,8 M€) et le conseil général de l'Hérault (0,7 M€).
 </t>
         </is>
@@ -565,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9socosme</t>
+          <t>Mésocosme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,6 +603,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
